--- a/Input data/Macro_data _high_elec_price.xlsx
+++ b/Input data/Macro_data _high_elec_price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.raillard-cazanove\ownCloud\PhD\Bottom-up &amp; scenarios\Modelling\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839135C-6F5A-4F0B-9177-541B63506178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C9CE8-4389-4525-94FB-60F732E98E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="1" r:id="rId1"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,18 +1705,19 @@
         <v>0.8</v>
       </c>
       <c r="D37">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E37">
         <f>($G37-$D37)/($G$32-$D$32)*(E$32-$D$32)+$D37</f>
-        <v>0.39999999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
         <f>($G37-$D37)/($G$32-$D$32)*(F$32-$D$32)+$D37</f>
-        <v>0.19999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>C37</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1858,7 +1859,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,18 +2817,19 @@
         <v>2.5</v>
       </c>
       <c r="D37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E37">
         <f>($G37-$D37)/($G$32-$D$32)*(E$32-$D$32)+$D37</f>
-        <v>1.5999999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="F37">
         <f>($G37-$D37)/($G$32-$D$32)*(F$32-$D$32)+$D37</f>
-        <v>0.79999999999999982</v>
+        <v>2.5</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>C37</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2972,7 +2974,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,14 +3939,15 @@
       </c>
       <c r="E37">
         <f>($G37-$D37)/($G$32-$D$32)*(E$32-$D$32)+$D37</f>
-        <v>6.666666666666668E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F37">
         <f>($G37-$D37)/($G$32-$D$32)*(F$32-$D$32)+$D37</f>
-        <v>3.333333333333334E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>C37</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4086,7 +4089,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,14 +5050,15 @@
       </c>
       <c r="E37">
         <f>($G37-$D37)/($G$32-$D$32)*(E$32-$D$32)+$D37</f>
-        <v>0.39999999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="F37">
         <f>($G37-$D37)/($G$32-$D$32)*(F$32-$D$32)+$D37</f>
-        <v>0.19999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>C37</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5199,7 +5203,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,14 +6164,15 @@
       </c>
       <c r="E37">
         <f>($G37-$D37)/($G$32-$D$32)*(E$32-$D$32)+$D37</f>
-        <v>0.26666666666666672</v>
+        <v>0.4</v>
       </c>
       <c r="F37">
         <f>($G37-$D37)/($G$32-$D$32)*(F$32-$D$32)+$D37</f>
-        <v>0.13333333333333336</v>
+        <v>0.4</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <f>C37</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -6311,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
